--- a/RPROCL1.xlsx
+++ b/RPROCL1.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t/>
   </si>
   <si>
-    <t>20113120</t>
-  </si>
-  <si>
-    <t>AICE CHOCO ALMOND 90</t>
+    <t>20032368</t>
+  </si>
+  <si>
+    <t>WALL'S MAGNUM ALMD80</t>
   </si>
   <si>
     <t>RPROCL1</t>
@@ -28,22 +28,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>15</t>
+    <t>1</t>
   </si>
   <si>
     <t>RT,(E-3B)</t>
   </si>
   <si>
-    <t>20134511</t>
-  </si>
-  <si>
-    <t>AICE CLSC CHO ALMD90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
+    <t>20032366</t>
+  </si>
+  <si>
+    <t>WALL'S MAGNUM CLAS80</t>
   </si>
 </sst>
 </file>
@@ -441,8 +435,7 @@
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="4" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
